--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -431,56 +431,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>264</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>286</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,35 +785,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>579</v>
+        <v>143</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -874,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -891,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -902,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -919,35 +869,35 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45863</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="D5" t="n">
-        <v>492</v>
+        <v>143</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45862</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -955,38 +905,38 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>193</v>
+        <v>588</v>
       </c>
       <c r="E6" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -995,15 +945,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1031,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1059,35 +1009,35 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45863</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D10" t="n">
-        <v>1112</v>
+        <v>213</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45862</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1095,27 +1045,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1143,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45865</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1171,91 +1121,91 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>163</v>
+        <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45866</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45865</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1283,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1311,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45866</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1331,43 +1281,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45845</v>
+        <v>45865</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45862</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1395,18 +1345,18 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1418,23 +1368,23 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1446,40 +1396,40 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45845</v>
+        <v>45862</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1507,39 +1457,39 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45865</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>896</v>
+        <v>331</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45862</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1563,67 +1513,67 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45845</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
         <v>896</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45849</v>
+        <v>45865</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>176</v>
+        <v>1142</v>
       </c>
       <c r="D29" t="n">
-        <v>143</v>
+        <v>594</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="G29" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1647,63 +1597,63 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45866</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D31" t="n">
-        <v>896</v>
+        <v>142</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45845</v>
+        <v>45862</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>937</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>896</v>
+        <v>347</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1714,13 +1664,13 @@
         <v>509</v>
       </c>
       <c r="D33" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E33" t="n">
         <v>134</v>
       </c>
       <c r="F33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1731,46 +1681,46 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D34" t="n">
-        <v>896</v>
+        <v>1125</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45866</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D35" t="n">
-        <v>896</v>
+        <v>277</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1779,514 +1729,38 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45866</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>937</v>
+        <v>1142</v>
       </c>
       <c r="D36" t="n">
-        <v>802</v>
+        <v>594</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F36" t="n">
-        <v>134</v>
+        <v>464</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>288</v>
-      </c>
-      <c r="D37" t="n">
-        <v>213</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>60</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>176</v>
-      </c>
-      <c r="D38" t="n">
-        <v>141</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>33</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>176</v>
-      </c>
-      <c r="D39" t="n">
-        <v>141</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>33</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>937</v>
-      </c>
-      <c r="D40" t="n">
-        <v>862</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>74</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1110</v>
-      </c>
-      <c r="E41" t="n">
-        <v>5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>15</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>332</v>
-      </c>
-      <c r="E42" t="n">
-        <v>134</v>
-      </c>
-      <c r="F42" t="n">
-        <v>29</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>492</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>176</v>
-      </c>
-      <c r="D44" t="n">
-        <v>57</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>82</v>
-      </c>
-      <c r="G44" t="n">
-        <v>33</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>288</v>
-      </c>
-      <c r="D45" t="n">
-        <v>213</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>60</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>288</v>
-      </c>
-      <c r="D46" t="n">
-        <v>213</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>60</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>509</v>
-      </c>
-      <c r="D47" t="n">
-        <v>329</v>
-      </c>
-      <c r="E47" t="n">
-        <v>134</v>
-      </c>
-      <c r="F47" t="n">
-        <v>34</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1111</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>13</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>283</v>
-      </c>
-      <c r="D50" t="n">
-        <v>211</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>68</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>163</v>
-      </c>
-      <c r="D51" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>154</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1138</v>
-      </c>
-      <c r="D52" t="n">
-        <v>218</v>
-      </c>
-      <c r="E52" t="n">
-        <v>215</v>
-      </c>
-      <c r="F52" t="n">
-        <v>705</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>163</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>155</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -732,7 +732,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -741,31 +741,31 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -933,1185 +933,1169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>780</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v/>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>764</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v/>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>1070</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
@@ -2139,93 +2123,109 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2253,93 +2253,109 @@
       <c r="H11" t="n">
         <v/>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
@@ -2367,93 +2383,109 @@
       <c r="H12" t="n">
         <v/>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
@@ -2481,93 +2513,109 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,7 +731,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
@@ -745,27 +745,36 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="10" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,164 +938,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>476</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1095,160 +1184,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1281,120 +1410,160 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1427,120 +1596,160 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>780</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1573,120 +1782,160 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>764</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1719,120 +1968,160 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>1070</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1865,104 +2154,144 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1995,104 +2324,144 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>765</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2125,104 +2494,144 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2255,104 +2664,144 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2385,104 +2834,144 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2515,104 +3004,144 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>1097</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>12</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -431,6 +431,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +757,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -740,41 +765,32 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="14" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -938,244 +954,164 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>476</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1184,386 +1120,322 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v/>
-      </c>
-      <c r="B4" t="n">
-        <v/>
-      </c>
-      <c r="C4" t="n">
-        <v/>
-      </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
-      <c r="E4" t="n">
-        <v/>
-      </c>
-      <c r="F4" t="n">
-        <v/>
-      </c>
-      <c r="G4" t="n">
-        <v/>
-      </c>
-      <c r="H4" t="n">
-        <v/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1596,160 +1468,120 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>780</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>780</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1780,162 +1612,106 @@
       <c r="H6" t="n">
         <v/>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>764</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>764</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1966,162 +1742,106 @@
       <c r="H7" t="n">
         <v/>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2152,146 +1872,106 @@
       <c r="H8" t="n">
         <v/>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2322,146 +2002,106 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>765</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>765</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2492,148 +2132,108 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2662,146 +2262,106 @@
       <c r="H11" t="n">
         <v/>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2832,86 +2392,70 @@
       <c r="H12" t="n">
         <v/>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="AB12" t="n">
         <v/>
       </c>
@@ -2935,46 +2479,6 @@
       </c>
       <c r="AI12" t="n">
         <v/>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -3002,86 +2506,70 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>1107</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1097</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="AB13" t="n">
         <v/>
       </c>
@@ -3105,46 +2593,6 @@
       </c>
       <c r="AI13" t="n">
         <v/>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>594</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,22 +766,22 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>476</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>113</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,127 +1120,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>1107</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1468,87 +1468,87 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>780</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1612,73 +1612,73 @@
       <c r="H6" t="n">
         <v/>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>764</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1742,73 +1742,73 @@
       <c r="H7" t="n">
         <v/>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1872,73 +1872,73 @@
       <c r="H8" t="n">
         <v/>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2002,73 +2002,73 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2132,73 +2132,73 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2262,75 +2262,75 @@
       <c r="H11" t="n">
         <v/>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
           <t>resident</t>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2392,69 +2392,69 @@
       <c r="H12" t="n">
         <v/>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
       </c>
       <c r="AB12" t="n">
         <v/>
@@ -2506,70 +2506,70 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1107</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
       <c r="AB13" t="n">
         <v/>
       </c>
@@ -2592,6 +2592,120 @@
         <v/>
       </c>
       <c r="AI13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -767,24 +767,24 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -958,304 +958,304 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1265,179 +1265,179 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>1107</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1468,123 +1468,107 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>889</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>780</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1614,107 +1598,107 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>836</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>764</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1744,107 +1728,107 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1874,107 +1858,107 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -2004,107 +1988,107 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>833</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -2134,107 +2118,107 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -2264,107 +2248,107 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>1107</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -2394,67 +2378,83 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
       </c>
       <c r="AB12" t="n">
         <v/>
@@ -2508,67 +2508,83 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>1106</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
       </c>
       <c r="AB13" t="n">
         <v/>
@@ -2620,69 +2636,69 @@
       <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -456,6 +456,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -748,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,27 +820,36 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -954,164 +1013,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1120,584 +1259,744 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1107</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AK3" t="n">
+        <v/>
+      </c>
+      <c r="AL3" t="n">
+        <v/>
+      </c>
+      <c r="AM3" t="n">
+        <v/>
+      </c>
+      <c r="AN3" t="n">
+        <v/>
+      </c>
+      <c r="AO3" t="n">
+        <v/>
+      </c>
+      <c r="AP3" t="n">
+        <v/>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
+      <c r="AR3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AK4" t="n">
+        <v/>
+      </c>
+      <c r="AL4" t="n">
+        <v/>
+      </c>
+      <c r="AM4" t="n">
+        <v/>
+      </c>
+      <c r="AN4" t="n">
+        <v/>
+      </c>
+      <c r="AO4" t="n">
+        <v/>
+      </c>
+      <c r="AP4" t="n">
+        <v/>
+      </c>
+      <c r="AQ4" t="n">
+        <v/>
+      </c>
+      <c r="AR4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v/>
-      </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>889</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
+        <v/>
+      </c>
+      <c r="AL5" t="n">
+        <v/>
+      </c>
+      <c r="AM5" t="n">
+        <v/>
+      </c>
+      <c r="AN5" t="n">
+        <v/>
+      </c>
+      <c r="AO5" t="n">
+        <v/>
+      </c>
+      <c r="AP5" t="n">
+        <v/>
+      </c>
+      <c r="AQ5" t="n">
+        <v/>
+      </c>
+      <c r="AR5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v/>
-      </c>
-      <c r="B6" t="n">
-        <v/>
-      </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
-      <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" t="n">
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v/>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>768</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>836</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v/>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
+      <c r="AN6" t="n">
+        <v/>
+      </c>
+      <c r="AO6" t="n">
+        <v/>
+      </c>
+      <c r="AP6" t="n">
+        <v/>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
+      <c r="AR6" t="n">
         <v/>
       </c>
     </row>
@@ -1728,106 +2027,146 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
         <v/>
       </c>
     </row>
@@ -1858,106 +2197,146 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
         <v/>
       </c>
     </row>
@@ -1988,106 +2367,146 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>833</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
         <v/>
       </c>
     </row>
@@ -2118,106 +2537,146 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>261</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
         <v/>
       </c>
     </row>
@@ -2248,106 +2707,146 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
+        <v/>
+      </c>
+      <c r="AL11" t="n">
+        <v/>
+      </c>
+      <c r="AM11" t="n">
+        <v/>
+      </c>
+      <c r="AN11" t="n">
+        <v/>
+      </c>
+      <c r="AO11" t="n">
+        <v/>
+      </c>
+      <c r="AP11" t="n">
+        <v/>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
+      <c r="AR11" t="n">
         <v/>
       </c>
     </row>
@@ -2378,106 +2877,146 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AK12" t="n">
+        <v/>
+      </c>
+      <c r="AL12" t="n">
+        <v/>
+      </c>
+      <c r="AM12" t="n">
+        <v/>
+      </c>
+      <c r="AN12" t="n">
+        <v/>
+      </c>
+      <c r="AO12" t="n">
+        <v/>
+      </c>
+      <c r="AP12" t="n">
+        <v/>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
+      <c r="AR12" t="n">
         <v/>
       </c>
     </row>
@@ -2508,106 +3047,146 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="n">
+        <v/>
+      </c>
+      <c r="AL13" t="n">
+        <v/>
+      </c>
+      <c r="AM13" t="n">
+        <v/>
+      </c>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
+      <c r="AO13" t="n">
+        <v/>
+      </c>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
         <v/>
       </c>
     </row>
@@ -2636,92 +3215,318 @@
       <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="n">
+        <v/>
+      </c>
+      <c r="AL14" t="n">
+        <v/>
+      </c>
+      <c r="AM14" t="n">
+        <v/>
+      </c>
+      <c r="AN14" t="n">
+        <v/>
+      </c>
+      <c r="AO14" t="n">
+        <v/>
+      </c>
+      <c r="AP14" t="n">
+        <v/>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
+      <c r="AR14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="n">
+        <v/>
+      </c>
+      <c r="AL15" t="n">
+        <v/>
+      </c>
+      <c r="AM15" t="n">
+        <v/>
+      </c>
+      <c r="AN15" t="n">
+        <v/>
+      </c>
+      <c r="AO15" t="n">
+        <v/>
+      </c>
+      <c r="AP15" t="n">
+        <v/>
+      </c>
+      <c r="AQ15" t="n">
+        <v/>
+      </c>
+      <c r="AR15" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -481,31 +481,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>308</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -820,27 +795,27 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
@@ -1057,167 +1032,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1259,338 +1234,354 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="n">
-        <v/>
-      </c>
-      <c r="AL3" t="n">
-        <v/>
-      </c>
-      <c r="AM3" t="n">
-        <v/>
-      </c>
-      <c r="AN3" t="n">
-        <v/>
-      </c>
-      <c r="AO3" t="n">
-        <v/>
-      </c>
-      <c r="AP3" t="n">
-        <v/>
-      </c>
-      <c r="AQ3" t="n">
-        <v/>
-      </c>
-      <c r="AR3" t="n">
-        <v/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>44</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1631,152 +1622,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>46</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>889</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1815,154 +1806,138 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>768</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>47</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>836</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>55</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -2027,112 +2002,112 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>44</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2197,112 +2172,112 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>44</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2367,112 +2342,112 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>44</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>833</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>47</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2537,122 +2512,122 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>261</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>261</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AK10" t="n">
@@ -2707,112 +2682,112 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>35</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2877,102 +2852,102 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2982,7 +2957,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2992,7 +2967,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK12" t="n">
@@ -3045,104 +3020,88 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3152,7 +3111,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3215,109 +3174,93 @@
       <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3385,71 +3328,55 @@
       <c r="H15" t="n">
         <v/>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="X15" t="inlineStr">
         <is>
           <t>0</t>
@@ -3465,45 +3392,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
       <c r="AK15" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -271,6 +271,206 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -573,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,18 +785,18 @@
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
-    <col width="3" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -685,62 +885,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>610</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>499</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -750,79 +950,79 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>414</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>316</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -832,79 +1032,79 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -914,7 +1114,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -931,80 +1131,740 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,10 +794,19 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -881,84 +890,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>499</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -967,80 +1056,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1049,80 +1178,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1131,80 +1300,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1237,40 +1446,80 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1303,40 +1552,80 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1369,40 +1658,80 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1435,40 +1764,80 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1501,40 +1870,80 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1567,40 +1976,80 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -1633,40 +2082,80 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1699,40 +2188,80 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1765,40 +2294,80 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1829,42 +2398,66 @@
       <c r="H15" t="n">
         <v/>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,18 +795,27 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -930,124 +939,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>499</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1056,120 +1145,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1178,120 +1307,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1300,120 +1469,160 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1446,80 +1655,120 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1552,80 +1801,120 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1658,80 +1947,120 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1764,80 +2093,120 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1870,80 +2239,120 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1976,80 +2385,120 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -2082,80 +2531,120 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2188,82 +2677,122 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2294,80 +2823,120 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2398,69 +2967,93 @@
       <c r="H15" t="n">
         <v/>
       </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="n">
-        <v/>
-      </c>
-      <c r="Q15" t="n">
-        <v/>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v/>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="X15" t="n">
+        <v/>
+      </c>
+      <c r="Y15" t="n">
+        <v/>
+      </c>
+      <c r="Z15" t="n">
+        <v/>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,61 +1730,127 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -786,18 +786,18 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -885,231 +885,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1131,727 +1131,887 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="n">
-        <v/>
-      </c>
-      <c r="Q15" t="n">
-        <v/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,10 +794,19 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -881,84 +890,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -967,80 +1056,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1049,80 +1178,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1131,80 +1300,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1213,80 +1422,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1295,80 +1544,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1377,80 +1666,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1459,80 +1788,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1541,80 +1910,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1623,80 +2032,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -1705,80 +2154,120 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1787,80 +2276,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1869,80 +2398,120 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1975,40 +2544,80 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,8 +794,8 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -803,10 +803,19 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -930,368 +939,528 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>415</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>174</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1300,1202 +1469,1434 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>0</t>
@@ -2503,7 +2904,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2515,6 +2916,30 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -2544,69 +2969,69 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="X15" t="inlineStr">
         <is>
           <t>0</t>
@@ -2621,6 +3046,30 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -795,7 +795,7 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -803,13 +803,13 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -983,304 +983,304 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>415</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>174</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1290,326 +1290,326 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>923</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1624,1287 +1624,1415 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2969,47 +3097,47 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -481,6 +481,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,21 +808,21 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -885,231 +910,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>422</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1131,661 +1156,903 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,19 +810,28 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -906,84 +915,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>505</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>422</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -992,80 +1081,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1074,80 +1203,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1156,80 +1325,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1238,80 +1447,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1320,80 +1569,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1402,80 +1691,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1484,80 +1813,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1566,80 +1935,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1648,80 +2057,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>246</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -1730,80 +2179,120 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1812,80 +2301,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1894,80 +2423,120 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1976,83 +2545,213 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="X16" t="n">
+        <v/>
+      </c>
+      <c r="Y16" t="n">
+        <v/>
+      </c>
+      <c r="Z16" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,12 +826,21 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -955,368 +964,528 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>503</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>86</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>505</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1325,1327 +1494,1583 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>246</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>597</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>467</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2662,6 +3087,30 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -2691,66 +3140,106 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v/>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
-      </c>
-      <c r="Z16" t="n">
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -1008,127 +1008,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>503</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>86</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1170,142 +1170,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>315</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>264</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1320,139 +1320,139 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1494,127 +1494,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1656,87 +1656,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1802,87 +1802,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1948,87 +1948,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2094,87 +2094,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2240,87 +2240,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2386,112 +2386,112 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2532,104 +2532,104 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>0</t>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2678,87 +2678,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2822,114 +2822,98 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>596</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>597</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>467</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>464</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2968,114 +2952,98 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3140,47 +3108,47 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -456,6 +456,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -748,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,14 +815,14 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -860,228 +910,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1099,732 +1149,992 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +810,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -823,6 +823,15 @@
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -906,84 +915,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -992,80 +1081,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1074,80 +1203,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1156,80 +1325,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1238,80 +1447,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1320,80 +1569,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1402,80 +1691,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1484,80 +1813,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1566,80 +1935,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1648,80 +2057,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -1730,80 +2179,120 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1812,80 +2301,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1894,80 +2423,120 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>598</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>466</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1976,80 +2545,120 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2058,80 +2667,120 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,7 +819,7 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -832,6 +832,15 @@
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -955,856 +964,1176 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>507</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1813,836 +2142,1012 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>0</t>
@@ -2662,114 +3167,138 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="X16" t="inlineStr">
         <is>
           <t>0</t>
@@ -2784,6 +3313,30 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -808,12 +808,12 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -828,13 +828,13 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -1008,127 +1008,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>420</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1170,142 +1170,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1315,164 +1315,164 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1487,1091 +1487,995 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2612,112 +2516,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2756,89 +2660,73 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2902,114 +2790,98 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>464</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>465</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3048,89 +2920,73 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3194,89 +3050,73 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -356,6 +356,156 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -648,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +808,15 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
@@ -760,47 +910,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -842,560 +992,1052 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,19 +810,28 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -906,84 +915,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -992,80 +1081,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1074,80 +1203,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1156,80 +1325,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1238,80 +1447,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1320,80 +1569,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1402,80 +1691,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1484,80 +1813,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1566,80 +1935,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1648,396 +2057,620 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="n">
-        <v/>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v/>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="X15" t="n">
+        <v/>
+      </c>
+      <c r="Y15" t="n">
+        <v/>
+      </c>
+      <c r="Z15" t="n">
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v/>
-      </c>
-      <c r="Q16" t="n">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="X16" t="n">
+        <v/>
+      </c>
+      <c r="Y16" t="n">
+        <v/>
+      </c>
+      <c r="Z16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,10 +810,10 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -826,12 +826,21 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -955,124 +964,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1081,1596 +1170,2092 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>22</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>23</t>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-      <c r="U15" t="n">
-        <v/>
-      </c>
-      <c r="V15" t="n">
-        <v/>
-      </c>
-      <c r="W15" t="n">
-        <v/>
-      </c>
-      <c r="X15" t="n">
-        <v/>
-      </c>
-      <c r="Y15" t="n">
-        <v/>
-      </c>
-      <c r="Z15" t="n">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="n">
-        <v/>
-      </c>
-      <c r="G16" t="n">
-        <v/>
-      </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v/>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
-      </c>
-      <c r="Z16" t="n">
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -810,7 +810,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -1008,127 +1008,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1170,309 +1170,309 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1494,249 +1494,233 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1802,87 +1786,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1948,87 +1932,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2094,87 +2078,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2240,87 +2224,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2386,87 +2370,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2532,87 +2516,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2678,87 +2662,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2824,112 +2808,112 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>599</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>464</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>468</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2970,87 +2954,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3116,87 +3100,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -837,17 +837,17 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -935,228 +935,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1181,875 +1181,1051 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>599</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="n">
-        <v/>
-      </c>
-      <c r="Q15" t="n">
-        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v/>
-      </c>
-      <c r="Q16" t="n">
-        <v/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v/>
+      </c>
+      <c r="B17" t="n">
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
-      <c r="K17" t="n">
-        <v/>
-      </c>
-      <c r="L17" t="n">
-        <v/>
-      </c>
-      <c r="M17" t="n">
-        <v/>
-      </c>
-      <c r="N17" t="n">
-        <v/>
-      </c>
-      <c r="O17" t="n">
-        <v/>
-      </c>
-      <c r="P17" t="n">
-        <v/>
-      </c>
-      <c r="Q17" t="n">
-        <v/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -823,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,8 +837,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -846,8 +846,17 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -931,84 +940,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1017,80 +1106,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1099,80 +1228,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1181,80 +1350,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1263,80 +1472,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1345,80 +1594,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1427,80 +1716,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1509,80 +1838,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1591,80 +1960,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1673,80 +2082,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -1755,80 +2204,120 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1837,80 +2326,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1919,80 +2448,120 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>599</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2001,80 +2570,120 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -2083,146 +2692,226 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
-      <c r="B17" t="n">
+      <c r="K17" t="n">
         <v/>
       </c>
-      <c r="C17" t="n">
+      <c r="L17" t="n">
         <v/>
       </c>
-      <c r="D17" t="n">
+      <c r="M17" t="n">
         <v/>
       </c>
-      <c r="E17" t="n">
+      <c r="N17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
+      <c r="O17" t="n">
         <v/>
       </c>
-      <c r="G17" t="n">
+      <c r="P17" t="n">
         <v/>
       </c>
-      <c r="H17" t="n">
+      <c r="Q17" t="n">
         <v/>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -823,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,8 +846,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -855,8 +855,17 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -980,1694 +989,2126 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>599</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>0</t>
@@ -2675,126 +3116,150 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X16" t="inlineStr">
         <is>
           <t>0</t>
@@ -2809,112 +3274,160 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
-      <c r="K17" t="n">
-        <v/>
-      </c>
-      <c r="L17" t="n">
-        <v/>
-      </c>
-      <c r="M17" t="n">
-        <v/>
-      </c>
-      <c r="N17" t="n">
-        <v/>
-      </c>
-      <c r="O17" t="n">
-        <v/>
-      </c>
-      <c r="P17" t="n">
-        <v/>
-      </c>
-      <c r="Q17" t="n">
-        <v/>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v/>
+      </c>
+      <c r="W17" t="n">
+        <v/>
+      </c>
+      <c r="X17" t="n">
+        <v/>
+      </c>
+      <c r="Y17" t="n">
+        <v/>
+      </c>
+      <c r="Z17" t="n">
+        <v/>
+      </c>
+      <c r="AB17" t="n">
+        <v/>
+      </c>
+      <c r="AC17" t="n">
+        <v/>
+      </c>
+      <c r="AD17" t="n">
+        <v/>
+      </c>
+      <c r="AE17" t="n">
+        <v/>
+      </c>
+      <c r="AF17" t="n">
+        <v/>
+      </c>
+      <c r="AG17" t="n">
+        <v/>
+      </c>
+      <c r="AH17" t="n">
+        <v/>
+      </c>
+      <c r="AI17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -855,8 +855,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -1033,127 +1033,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1195,142 +1195,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>315</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>264</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1345,154 +1345,154 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1502,164 +1502,164 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1681,249 +1681,233 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1989,104 +1973,104 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2094,7 +2078,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -2135,87 +2119,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2281,87 +2265,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2427,112 +2411,112 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>261</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>88</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2573,87 +2557,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2719,87 +2703,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2865,112 +2849,112 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>464</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>594</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>468</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3011,122 +2995,122 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>166</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AB15" t="n">
@@ -3157,107 +3141,107 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3303,107 +3287,123 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="n">
-        <v/>
-      </c>
-      <c r="U17" t="n">
-        <v/>
-      </c>
-      <c r="V17" t="n">
-        <v/>
-      </c>
-      <c r="W17" t="n">
-        <v/>
-      </c>
-      <c r="X17" t="n">
-        <v/>
-      </c>
-      <c r="Y17" t="n">
-        <v/>
-      </c>
-      <c r="Z17" t="n">
-        <v/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB17" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -833,21 +833,21 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -935,236 +935,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1174,898 +1174,1058 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>166</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="n">
-        <v/>
-      </c>
-      <c r="Q15" t="n">
-        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v/>
-      </c>
-      <c r="Q16" t="n">
-        <v/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v/>
+      </c>
+      <c r="B17" t="n">
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
-      <c r="K17" t="n">
-        <v/>
-      </c>
-      <c r="L17" t="n">
-        <v/>
-      </c>
-      <c r="M17" t="n">
-        <v/>
-      </c>
-      <c r="N17" t="n">
-        <v/>
-      </c>
-      <c r="O17" t="n">
-        <v/>
-      </c>
-      <c r="P17" t="n">
-        <v/>
-      </c>
-      <c r="Q17" t="n">
-        <v/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -823,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,12 +842,21 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -931,84 +940,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>419</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1017,80 +1106,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1099,80 +1228,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1181,80 +1350,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1263,80 +1472,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1345,80 +1594,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1427,80 +1716,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1509,80 +1838,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1591,80 +1960,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1673,80 +2082,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1755,80 +2204,120 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1837,80 +2326,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1919,80 +2448,120 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2001,80 +2570,120 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>166</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -2083,80 +2692,120 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2187,42 +2836,66 @@
       <c r="H17" t="n">
         <v/>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v/>
+      </c>
+      <c r="M17" t="n">
+        <v/>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v/>
+      </c>
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="n">
+        <v/>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -823,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,12 +833,12 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -851,12 +851,21 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -980,368 +989,528 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>419</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1350,1451 +1519,1731 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X16" t="inlineStr">
         <is>
           <t>0</t>
@@ -2809,32 +3258,72 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v/>
-      </c>
-      <c r="B17" t="n">
-        <v/>
-      </c>
-      <c r="C17" t="n">
-        <v/>
-      </c>
-      <c r="D17" t="n">
-        <v/>
-      </c>
-      <c r="E17" t="n">
-        <v/>
-      </c>
-      <c r="F17" t="n">
-        <v/>
-      </c>
-      <c r="G17" t="n">
-        <v/>
-      </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J17" t="n">
         <v/>
@@ -2860,45 +3349,53 @@
       <c r="Q17" t="n">
         <v/>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v/>
+      </c>
+      <c r="W17" t="n">
+        <v/>
+      </c>
+      <c r="X17" t="n">
+        <v/>
+      </c>
+      <c r="Y17" t="n">
+        <v/>
+      </c>
+      <c r="Z17" t="n">
+        <v/>
+      </c>
+      <c r="AB17" t="n">
+        <v/>
+      </c>
+      <c r="AC17" t="n">
+        <v/>
+      </c>
+      <c r="AD17" t="n">
+        <v/>
+      </c>
+      <c r="AE17" t="n">
+        <v/>
+      </c>
+      <c r="AF17" t="n">
+        <v/>
+      </c>
+      <c r="AG17" t="n">
+        <v/>
+      </c>
+      <c r="AH17" t="n">
+        <v/>
+      </c>
+      <c r="AI17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -833,21 +833,21 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -1033,127 +1033,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>514</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>419</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1195,142 +1195,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1350,154 +1350,154 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1519,249 +1519,233 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1827,87 +1811,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1973,87 +1957,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2119,87 +2103,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2265,87 +2249,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2411,112 +2395,112 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2557,87 +2541,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2703,87 +2687,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2849,112 +2833,112 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2995,87 +2979,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3141,87 +3125,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3285,69 +3269,69 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v/>
+      </c>
+      <c r="B17" t="n">
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
-      <c r="K17" t="n">
-        <v/>
-      </c>
-      <c r="L17" t="n">
-        <v/>
-      </c>
-      <c r="M17" t="n">
-        <v/>
-      </c>
-      <c r="N17" t="n">
-        <v/>
-      </c>
-      <c r="O17" t="n">
-        <v/>
-      </c>
-      <c r="P17" t="n">
-        <v/>
-      </c>
-      <c r="Q17" t="n">
-        <v/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S17" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -811,18 +811,18 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -910,231 +910,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>420</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1156,793 +1156,985 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="n">
-        <v/>
-      </c>
-      <c r="Q15" t="n">
-        <v/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v/>
-      </c>
-      <c r="Q16" t="n">
-        <v/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,23 +806,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -906,84 +915,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>420</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -992,80 +1081,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1074,80 +1203,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1156,80 +1325,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1238,80 +1447,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1320,80 +1569,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1402,80 +1691,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1484,80 +1813,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1566,80 +1935,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1648,80 +2057,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1730,80 +2179,120 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1812,80 +2301,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1894,80 +2423,120 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -1976,162 +2545,226 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,12 +815,12 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -829,9 +829,18 @@
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -955,368 +964,528 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1325,1324 +1494,1564 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>0</t>
@@ -2662,6 +3071,30 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -2691,69 +3124,69 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="X16" t="inlineStr">
         <is>
           <t>0</t>
@@ -2768,6 +3201,30 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -811,25 +811,25 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -1008,127 +1008,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>507</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1170,127 +1170,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1332,127 +1332,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1494,87 +1494,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1640,87 +1640,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1786,87 +1786,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1932,87 +1932,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2078,87 +2078,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2224,87 +2224,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2370,87 +2370,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2516,87 +2516,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2662,87 +2662,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2808,112 +2808,112 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2954,87 +2954,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c